--- a/Ganadería/17.25.xlsx
+++ b/Ganadería/17.25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BCN\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Ganadería\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4006E651-BB95-41E4-8E48-96264C00C5ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62F67A3-10FF-48F3-BDC9-AEA8A4FFE953}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C3FE0F7F-E924-4772-AF9D-39E50E23893D}"/>
   </bookViews>
@@ -1697,7 +1697,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A35"/>
+      <selection activeCell="E2" sqref="E2:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1746,7 +1746,7 @@
         <v>11</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>100401008</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
@@ -1769,7 +1769,7 @@
         <v>11</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>100401008</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
@@ -1792,7 +1792,7 @@
         <v>11</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>100401008</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -1815,7 +1815,7 @@
         <v>11</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>100401008</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
@@ -1838,7 +1838,7 @@
         <v>11</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>100401008</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
@@ -1861,7 +1861,7 @@
         <v>11</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>100401008</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
@@ -1884,7 +1884,7 @@
         <v>11</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>100401008</v>
       </c>
       <c r="F8" t="s">
         <v>21</v>
@@ -1907,7 +1907,7 @@
         <v>11</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>100401008</v>
       </c>
       <c r="F9" t="s">
         <v>21</v>
@@ -1930,7 +1930,7 @@
         <v>11</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>100401008</v>
       </c>
       <c r="F10" t="s">
         <v>21</v>
@@ -1953,7 +1953,7 @@
         <v>11</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>100401008</v>
       </c>
       <c r="F11" t="s">
         <v>21</v>
@@ -1976,7 +1976,7 @@
         <v>11</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>100401008</v>
       </c>
       <c r="F12" t="s">
         <v>21</v>
@@ -1999,7 +1999,7 @@
         <v>11</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>100401008</v>
       </c>
       <c r="F13" t="s">
         <v>21</v>
@@ -2022,7 +2022,7 @@
         <v>11</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>100401008</v>
       </c>
       <c r="F14" t="s">
         <v>21</v>
@@ -2045,7 +2045,7 @@
         <v>11</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>100401008</v>
       </c>
       <c r="F15" t="s">
         <v>21</v>
@@ -2068,7 +2068,7 @@
         <v>11</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>100401008</v>
       </c>
       <c r="F16" t="s">
         <v>21</v>
@@ -2091,7 +2091,7 @@
         <v>11</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>100401008</v>
       </c>
       <c r="F17" t="s">
         <v>21</v>
@@ -2114,7 +2114,7 @@
         <v>11</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>100401008</v>
       </c>
       <c r="F18" t="s">
         <v>21</v>
@@ -2137,7 +2137,7 @@
         <v>11</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>100401008</v>
       </c>
       <c r="F19" t="s">
         <v>25</v>
@@ -2160,7 +2160,7 @@
         <v>11</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>100401008</v>
       </c>
       <c r="F20" t="s">
         <v>25</v>
@@ -2183,7 +2183,7 @@
         <v>11</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>100401008</v>
       </c>
       <c r="F21" t="s">
         <v>25</v>
@@ -2206,7 +2206,7 @@
         <v>11</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>100401008</v>
       </c>
       <c r="F22" t="s">
         <v>25</v>
@@ -2229,7 +2229,7 @@
         <v>11</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>100401008</v>
       </c>
       <c r="F23" t="s">
         <v>25</v>
@@ -2252,7 +2252,7 @@
         <v>11</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>100401008</v>
       </c>
       <c r="F24" t="s">
         <v>25</v>
@@ -2275,7 +2275,7 @@
         <v>11</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>100401008</v>
       </c>
       <c r="F25" t="s">
         <v>28</v>
@@ -2298,7 +2298,7 @@
         <v>11</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>100401008</v>
       </c>
       <c r="F26" t="s">
         <v>28</v>
@@ -2321,7 +2321,7 @@
         <v>11</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>100401008</v>
       </c>
       <c r="F27" t="s">
         <v>28</v>
@@ -2344,7 +2344,7 @@
         <v>11</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>100401008</v>
       </c>
       <c r="F28" t="s">
         <v>28</v>
@@ -2367,7 +2367,7 @@
         <v>11</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>100401008</v>
       </c>
       <c r="F29" t="s">
         <v>28</v>
@@ -2390,7 +2390,7 @@
         <v>11</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>100401008</v>
       </c>
       <c r="F30" t="s">
         <v>28</v>
@@ -2413,7 +2413,7 @@
         <v>11</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>100401008</v>
       </c>
       <c r="F31" t="s">
         <v>28</v>
@@ -2436,7 +2436,7 @@
         <v>11</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>100401008</v>
       </c>
       <c r="F32" t="s">
         <v>28</v>
@@ -2459,7 +2459,7 @@
         <v>11</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>100401008</v>
       </c>
       <c r="F33" t="s">
         <v>28</v>
@@ -2482,7 +2482,7 @@
         <v>11</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>100401008</v>
       </c>
       <c r="F34" t="s">
         <v>28</v>
@@ -2505,7 +2505,7 @@
         <v>11</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>100401008</v>
       </c>
       <c r="F35" t="s">
         <v>28</v>

--- a/Ganadería/17.25.xlsx
+++ b/Ganadería/17.25.xlsx
@@ -5,28 +5,37 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BCN\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Ganadería\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Ganadería\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62F67A3-10FF-48F3-BDC9-AEA8A4FFE953}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A42FA3F-D81A-4D70-B78D-26E5375A4417}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C3FE0F7F-E924-4772-AF9D-39E50E23893D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C3FE0F7F-E924-4772-AF9D-39E50E23893D}"/>
   </bookViews>
   <sheets>
     <sheet name="producto y destino exportac.usd" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="431">
   <si>
     <t>Cod_pais</t>
   </si>
@@ -1298,6 +1307,27 @@
   </si>
   <si>
     <t>Valor (miles USD FOB)</t>
+  </si>
+  <si>
+    <t>Cod_Tipo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo </t>
+  </si>
+  <si>
+    <t>Producto</t>
+  </si>
+  <si>
+    <t>Despojos comestibles, lenguas de bovinos congeladas</t>
+  </si>
+  <si>
+    <t>Los demás despojos comestibles de bovinos, congelados</t>
+  </si>
+  <si>
+    <t>Las demás preparaciones de bovinos, incluidas las mezclas</t>
+  </si>
+  <si>
+    <t>Sub-Producto</t>
   </si>
 </sst>
 </file>
@@ -1342,9 +1372,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1371,15 +1402,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40F6E3E3-53D6-4046-864A-9125C2129A06}" name="Exportaciones_carne__por_principales_productos_destinos_miles_usd_fob_2020" displayName="Exportaciones_carne__por_principales_productos_destinos_miles_usd_fob_2020" ref="A1:G35" totalsRowShown="0">
-  <autoFilter ref="A1:G35" xr:uid="{743E61F4-83A4-4D08-9D8A-DA400C522AFC}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{9E9AED5B-14F6-44BB-BB2A-EC8D85ACC77C}" name="Cod_pais" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40F6E3E3-53D6-4046-864A-9125C2129A06}" name="Exportaciones_productos_subproductos_destinos_miles_usd_fob_2020" displayName="Exportaciones_productos_subproductos_destinos_miles_usd_fob_2020" ref="A1:I49" totalsRowShown="0">
+  <autoFilter ref="A1:I49" xr:uid="{743E61F4-83A4-4D08-9D8A-DA400C522AFC}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{9E9AED5B-14F6-44BB-BB2A-EC8D85ACC77C}" name="Cod_pais" dataDxfId="1">
+      <calculatedColumnFormula>VLOOKUP(Exportaciones_productos_subproductos_destinos_miles_usd_fob_2020[[#This Row],[Pais]],CODIGO_PAIS[],2,0)</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="2" xr3:uid="{E1F683B6-1B46-4478-8CC0-7B7EA285AB22}" name="Pais"/>
     <tableColumn id="3" xr3:uid="{012BEB5F-961A-4C05-B0B3-3EEA3B07A558}" name="id_producto"/>
     <tableColumn id="4" xr3:uid="{E5ED3DFE-2D5D-4A8E-B3F1-BCCCDC4D1923}" name="producto"/>
     <tableColumn id="5" xr3:uid="{E5CC7640-D3C9-423E-8869-0404FC8BA0CE}" name="Id_categoria"/>
     <tableColumn id="6" xr3:uid="{F365BAD4-67B0-4A84-8201-08A8CA0D5C23}" name="categoria"/>
+    <tableColumn id="9" xr3:uid="{E64DAD11-6675-4D75-9170-74D2DE226556}" name="Cod_Tipo"/>
+    <tableColumn id="8" xr3:uid="{A00E9670-AC15-4CED-BE7D-96B6C34433BA}" name="Tipo "/>
     <tableColumn id="7" xr3:uid="{58B06C50-07B9-41D8-8F55-B6C717CC99B1}" name="Valor (miles USD FOB)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1694,11 +1729,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C05BC6-1B92-465A-B7C0-96B5F7899E76}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E35"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1706,10 +1739,11 @@
     <col min="4" max="4" width="21.85546875" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="59.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1729,12 +1763,19 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>424</v>
+      </c>
+      <c r="H1" t="s">
+        <v>425</v>
+      </c>
+      <c r="I1" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>106</v>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>VLOOKUP(Exportaciones_productos_subproductos_destinos_miles_usd_fob_2020[[#This Row],[Pais]],CODIGO_PAIS[],2,0)</f>
+        <v>CHN</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -1745,19 +1786,23 @@
       <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="E2">
-        <v>100401008</v>
-      </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>426</v>
+      </c>
+      <c r="I2" s="1">
         <v>312.673</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>141</v>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f>VLOOKUP(Exportaciones_productos_subproductos_destinos_miles_usd_fob_2020[[#This Row],[Pais]],CODIGO_PAIS[],2,0)</f>
+        <v>ESP</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -1768,19 +1813,23 @@
       <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="E3">
-        <v>100401008</v>
-      </c>
       <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>426</v>
+      </c>
+      <c r="I3" s="1">
         <v>162.68100000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>306</v>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f>VLOOKUP(Exportaciones_productos_subproductos_destinos_miles_usd_fob_2020[[#This Row],[Pais]],CODIGO_PAIS[],2,0)</f>
+        <v>GBR</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -1791,19 +1840,23 @@
       <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="E4">
-        <v>100401008</v>
-      </c>
       <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>426</v>
+      </c>
+      <c r="I4" s="1">
         <v>30.56</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>289</v>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f>VLOOKUP(Exportaciones_productos_subproductos_destinos_miles_usd_fob_2020[[#This Row],[Pais]],CODIGO_PAIS[],2,0)</f>
+        <v>NLD</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -1814,19 +1867,23 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="E5">
-        <v>100401008</v>
-      </c>
       <c r="F5" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>426</v>
+      </c>
+      <c r="I5" s="1">
         <v>6.6749999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>165</v>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f>VLOOKUP(Exportaciones_productos_subproductos_destinos_miles_usd_fob_2020[[#This Row],[Pais]],CODIGO_PAIS[],2,0)</f>
+        <v>GRC</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -1837,19 +1894,23 @@
       <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="E6">
-        <v>100401008</v>
-      </c>
       <c r="F6" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>426</v>
+      </c>
+      <c r="I6" s="1">
         <v>0.34399999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>141</v>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f>VLOOKUP(Exportaciones_productos_subproductos_destinos_miles_usd_fob_2020[[#This Row],[Pais]],CODIGO_PAIS[],2,0)</f>
+        <v>ESP</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -1860,19 +1921,23 @@
       <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="E7">
-        <v>100401008</v>
-      </c>
       <c r="F7" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>426</v>
+      </c>
+      <c r="I7" s="1">
         <v>1343.05</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>306</v>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f>VLOOKUP(Exportaciones_productos_subproductos_destinos_miles_usd_fob_2020[[#This Row],[Pais]],CODIGO_PAIS[],2,0)</f>
+        <v>GBR</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -1883,19 +1948,23 @@
       <c r="D8" t="s">
         <v>11</v>
       </c>
-      <c r="E8">
-        <v>100401008</v>
-      </c>
       <c r="F8" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>426</v>
+      </c>
+      <c r="I8" s="1">
         <v>472.90699999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>36</v>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f>VLOOKUP(Exportaciones_productos_subproductos_destinos_miles_usd_fob_2020[[#This Row],[Pais]],CODIGO_PAIS[],2,0)</f>
+        <v>DEU</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -1906,19 +1975,23 @@
       <c r="D9" t="s">
         <v>11</v>
       </c>
-      <c r="E9">
-        <v>100401008</v>
-      </c>
       <c r="F9" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>426</v>
+      </c>
+      <c r="I9" s="1">
         <v>229.239</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>359</v>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f>VLOOKUP(Exportaciones_productos_subproductos_destinos_miles_usd_fob_2020[[#This Row],[Pais]],CODIGO_PAIS[],2,0)</f>
+        <v>CHE</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -1929,19 +2002,23 @@
       <c r="D10" t="s">
         <v>11</v>
       </c>
-      <c r="E10">
-        <v>100401008</v>
-      </c>
       <c r="F10" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>426</v>
+      </c>
+      <c r="I10" s="1">
         <v>189.71700000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>142</v>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f>VLOOKUP(Exportaciones_productos_subproductos_destinos_miles_usd_fob_2020[[#This Row],[Pais]],CODIGO_PAIS[],2,0)</f>
+        <v>USA</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -1952,19 +2029,23 @@
       <c r="D11" t="s">
         <v>11</v>
       </c>
-      <c r="E11">
-        <v>100401008</v>
-      </c>
       <c r="F11" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>426</v>
+      </c>
+      <c r="I11" s="1">
         <v>148.48400000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>300</v>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f>VLOOKUP(Exportaciones_productos_subproductos_destinos_miles_usd_fob_2020[[#This Row],[Pais]],CODIGO_PAIS[],2,0)</f>
+        <v>PRY</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
@@ -1975,19 +2056,23 @@
       <c r="D12" t="s">
         <v>11</v>
       </c>
-      <c r="E12">
-        <v>100401008</v>
-      </c>
       <c r="F12" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>426</v>
+      </c>
+      <c r="I12" s="1">
         <v>130.023</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>99</v>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f>VLOOKUP(Exportaciones_productos_subproductos_destinos_miles_usd_fob_2020[[#This Row],[Pais]],CODIGO_PAIS[],2,0)</f>
+        <v>CAN</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -1998,19 +2083,23 @@
       <c r="D13" t="s">
         <v>11</v>
       </c>
-      <c r="E13">
-        <v>100401008</v>
-      </c>
       <c r="F13" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>426</v>
+      </c>
+      <c r="I13" s="1">
         <v>111.508</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>289</v>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f>VLOOKUP(Exportaciones_productos_subproductos_destinos_miles_usd_fob_2020[[#This Row],[Pais]],CODIGO_PAIS[],2,0)</f>
+        <v>NLD</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
@@ -2021,19 +2110,23 @@
       <c r="D14" t="s">
         <v>11</v>
       </c>
-      <c r="E14">
-        <v>100401008</v>
-      </c>
       <c r="F14" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>426</v>
+      </c>
+      <c r="I14" s="1">
         <v>88.057000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>165</v>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f>VLOOKUP(Exportaciones_productos_subproductos_destinos_miles_usd_fob_2020[[#This Row],[Pais]],CODIGO_PAIS[],2,0)</f>
+        <v>GRC</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
@@ -2044,19 +2137,23 @@
       <c r="D15" t="s">
         <v>11</v>
       </c>
-      <c r="E15">
-        <v>100401008</v>
-      </c>
       <c r="F15" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>426</v>
+      </c>
+      <c r="I15" s="1">
         <v>14.189</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>412</v>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f>VLOOKUP(Exportaciones_productos_subproductos_destinos_miles_usd_fob_2020[[#This Row],[Pais]],CODIGO_PAIS[],2,0)</f>
+        <v>HKG</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
@@ -2067,19 +2164,23 @@
       <c r="D16" t="s">
         <v>11</v>
       </c>
-      <c r="E16">
-        <v>100401008</v>
-      </c>
       <c r="F16" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>426</v>
+      </c>
+      <c r="I16" s="1">
         <v>8.1829999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>119</v>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f>VLOOKUP(Exportaciones_productos_subproductos_destinos_miles_usd_fob_2020[[#This Row],[Pais]],CODIGO_PAIS[],2,0)</f>
+        <v>CRI</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
@@ -2090,19 +2191,23 @@
       <c r="D17" t="s">
         <v>11</v>
       </c>
-      <c r="E17">
-        <v>100401008</v>
-      </c>
       <c r="F17" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>426</v>
+      </c>
+      <c r="I17" s="1">
         <v>2.0259999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>301</v>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f>VLOOKUP(Exportaciones_productos_subproductos_destinos_miles_usd_fob_2020[[#This Row],[Pais]],CODIGO_PAIS[],2,0)</f>
+        <v>PER</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
@@ -2113,19 +2218,23 @@
       <c r="D18" t="s">
         <v>11</v>
       </c>
-      <c r="E18">
-        <v>100401008</v>
-      </c>
       <c r="F18" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>426</v>
+      </c>
+      <c r="I18" s="1">
         <v>1.28</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>106</v>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f>VLOOKUP(Exportaciones_productos_subproductos_destinos_miles_usd_fob_2020[[#This Row],[Pais]],CODIGO_PAIS[],2,0)</f>
+        <v>CHN</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
@@ -2136,19 +2245,23 @@
       <c r="D19" t="s">
         <v>11</v>
       </c>
-      <c r="E19">
-        <v>100401008</v>
-      </c>
       <c r="F19" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>426</v>
+      </c>
+      <c r="I19" s="1">
         <v>51773.525999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>116</v>
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f>VLOOKUP(Exportaciones_productos_subproductos_destinos_miles_usd_fob_2020[[#This Row],[Pais]],CODIGO_PAIS[],2,0)</f>
+        <v>KOR</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
@@ -2159,19 +2272,23 @@
       <c r="D20" t="s">
         <v>11</v>
       </c>
-      <c r="E20">
-        <v>100401008</v>
-      </c>
       <c r="F20" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>426</v>
+      </c>
+      <c r="I20" s="1">
         <v>1112.807</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>99</v>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f>VLOOKUP(Exportaciones_productos_subproductos_destinos_miles_usd_fob_2020[[#This Row],[Pais]],CODIGO_PAIS[],2,0)</f>
+        <v>CAN</v>
       </c>
       <c r="B21" t="s">
         <v>17</v>
@@ -2182,19 +2299,23 @@
       <c r="D21" t="s">
         <v>11</v>
       </c>
-      <c r="E21">
-        <v>100401008</v>
-      </c>
       <c r="F21" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>426</v>
+      </c>
+      <c r="I21" s="1">
         <v>791.41300000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>122</v>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f>VLOOKUP(Exportaciones_productos_subproductos_destinos_miles_usd_fob_2020[[#This Row],[Pais]],CODIGO_PAIS[],2,0)</f>
+        <v>CUB</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
@@ -2205,19 +2326,23 @@
       <c r="D22" t="s">
         <v>11</v>
       </c>
-      <c r="E22">
-        <v>100401008</v>
-      </c>
       <c r="F22" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>426</v>
+      </c>
+      <c r="I22" s="1">
         <v>19.579000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>285</v>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f>VLOOKUP(Exportaciones_productos_subproductos_destinos_miles_usd_fob_2020[[#This Row],[Pais]],CODIGO_PAIS[],2,0)</f>
+        <v>NZL</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
@@ -2228,19 +2353,23 @@
       <c r="D23" t="s">
         <v>11</v>
       </c>
-      <c r="E23">
-        <v>100401008</v>
-      </c>
       <c r="F23" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>426</v>
+      </c>
+      <c r="I23" s="1">
         <v>8.3670000000000009</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>301</v>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f>VLOOKUP(Exportaciones_productos_subproductos_destinos_miles_usd_fob_2020[[#This Row],[Pais]],CODIGO_PAIS[],2,0)</f>
+        <v>PER</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -2251,19 +2380,23 @@
       <c r="D24" t="s">
         <v>11</v>
       </c>
-      <c r="E24">
-        <v>100401008</v>
-      </c>
       <c r="F24" t="s">
         <v>25</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>426</v>
+      </c>
+      <c r="I24" s="1">
         <v>5.0209999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>106</v>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f>VLOOKUP(Exportaciones_productos_subproductos_destinos_miles_usd_fob_2020[[#This Row],[Pais]],CODIGO_PAIS[],2,0)</f>
+        <v>CHN</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
@@ -2274,19 +2407,23 @@
       <c r="D25" t="s">
         <v>11</v>
       </c>
-      <c r="E25">
-        <v>100401008</v>
-      </c>
       <c r="F25" t="s">
         <v>28</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>426</v>
+      </c>
+      <c r="I25" s="1">
         <v>26952.35</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>99</v>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f>VLOOKUP(Exportaciones_productos_subproductos_destinos_miles_usd_fob_2020[[#This Row],[Pais]],CODIGO_PAIS[],2,0)</f>
+        <v>CAN</v>
       </c>
       <c r="B26" t="s">
         <v>17</v>
@@ -2297,19 +2434,23 @@
       <c r="D26" t="s">
         <v>11</v>
       </c>
-      <c r="E26">
-        <v>100401008</v>
-      </c>
       <c r="F26" t="s">
         <v>28</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>426</v>
+      </c>
+      <c r="I26" s="1">
         <v>5467.9830000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>122</v>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f>VLOOKUP(Exportaciones_productos_subproductos_destinos_miles_usd_fob_2020[[#This Row],[Pais]],CODIGO_PAIS[],2,0)</f>
+        <v>CUB</v>
       </c>
       <c r="B27" t="s">
         <v>23</v>
@@ -2320,19 +2461,23 @@
       <c r="D27" t="s">
         <v>11</v>
       </c>
-      <c r="E27">
-        <v>100401008</v>
-      </c>
       <c r="F27" t="s">
         <v>28</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>426</v>
+      </c>
+      <c r="I27" s="1">
         <v>1320.8489999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>109</v>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f>VLOOKUP(Exportaciones_productos_subproductos_destinos_miles_usd_fob_2020[[#This Row],[Pais]],CODIGO_PAIS[],2,0)</f>
+        <v>COL</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2343,19 +2488,23 @@
       <c r="D28" t="s">
         <v>11</v>
       </c>
-      <c r="E28">
-        <v>100401008</v>
-      </c>
       <c r="F28" t="s">
         <v>28</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>426</v>
+      </c>
+      <c r="I28" s="1">
         <v>1087.9280000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>142</v>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f>VLOOKUP(Exportaciones_productos_subproductos_destinos_miles_usd_fob_2020[[#This Row],[Pais]],CODIGO_PAIS[],2,0)</f>
+        <v>USA</v>
       </c>
       <c r="B29" t="s">
         <v>15</v>
@@ -2366,19 +2515,23 @@
       <c r="D29" t="s">
         <v>11</v>
       </c>
-      <c r="E29">
-        <v>100401008</v>
-      </c>
       <c r="F29" t="s">
         <v>28</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>426</v>
+      </c>
+      <c r="I29" s="1">
         <v>823.23099999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>116</v>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f>VLOOKUP(Exportaciones_productos_subproductos_destinos_miles_usd_fob_2020[[#This Row],[Pais]],CODIGO_PAIS[],2,0)</f>
+        <v>KOR</v>
       </c>
       <c r="B30" t="s">
         <v>22</v>
@@ -2389,19 +2542,23 @@
       <c r="D30" t="s">
         <v>11</v>
       </c>
-      <c r="E30">
-        <v>100401008</v>
-      </c>
       <c r="F30" t="s">
         <v>28</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>426</v>
+      </c>
+      <c r="I30" s="1">
         <v>523.31600000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>141</v>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f>VLOOKUP(Exportaciones_productos_subproductos_destinos_miles_usd_fob_2020[[#This Row],[Pais]],CODIGO_PAIS[],2,0)</f>
+        <v>ESP</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
@@ -2412,19 +2569,23 @@
       <c r="D31" t="s">
         <v>11</v>
       </c>
-      <c r="E31">
-        <v>100401008</v>
-      </c>
       <c r="F31" t="s">
         <v>28</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>426</v>
+      </c>
+      <c r="I31" s="1">
         <v>217.11</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>301</v>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f>VLOOKUP(Exportaciones_productos_subproductos_destinos_miles_usd_fob_2020[[#This Row],[Pais]],CODIGO_PAIS[],2,0)</f>
+        <v>PER</v>
       </c>
       <c r="B32" t="s">
         <v>20</v>
@@ -2435,19 +2596,23 @@
       <c r="D32" t="s">
         <v>11</v>
       </c>
-      <c r="E32">
-        <v>100401008</v>
-      </c>
       <c r="F32" t="s">
         <v>28</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32" t="s">
+        <v>426</v>
+      </c>
+      <c r="I32" s="1">
         <v>94.25</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>412</v>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f>VLOOKUP(Exportaciones_productos_subproductos_destinos_miles_usd_fob_2020[[#This Row],[Pais]],CODIGO_PAIS[],2,0)</f>
+        <v>HKG</v>
       </c>
       <c r="B33" t="s">
         <v>18</v>
@@ -2458,19 +2623,23 @@
       <c r="D33" t="s">
         <v>11</v>
       </c>
-      <c r="E33">
-        <v>100401008</v>
-      </c>
       <c r="F33" t="s">
         <v>28</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33" t="s">
+        <v>426</v>
+      </c>
+      <c r="I33" s="1">
         <v>73.584000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>119</v>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
+        <f>VLOOKUP(Exportaciones_productos_subproductos_destinos_miles_usd_fob_2020[[#This Row],[Pais]],CODIGO_PAIS[],2,0)</f>
+        <v>CRI</v>
       </c>
       <c r="B34" t="s">
         <v>19</v>
@@ -2481,19 +2650,23 @@
       <c r="D34" t="s">
         <v>11</v>
       </c>
-      <c r="E34">
-        <v>100401008</v>
-      </c>
       <c r="F34" t="s">
         <v>28</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34" t="s">
+        <v>426</v>
+      </c>
+      <c r="I34" s="1">
         <v>4.9720000000000004</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>204</v>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="str">
+        <f>VLOOKUP(Exportaciones_productos_subproductos_destinos_miles_usd_fob_2020[[#This Row],[Pais]],CODIGO_PAIS[],2,0)</f>
+        <v>JPN</v>
       </c>
       <c r="B35" t="s">
         <v>27</v>
@@ -2504,23 +2677,435 @@
       <c r="D35" t="s">
         <v>11</v>
       </c>
-      <c r="E35">
-        <v>100401008</v>
-      </c>
       <c r="F35" t="s">
         <v>28</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>426</v>
+      </c>
+      <c r="I35" s="1">
         <v>0.30299999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36">
+        <v>100401</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36" t="s">
+        <v>427</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36" t="s">
+        <v>430</v>
+      </c>
+      <c r="I36" s="1">
+        <v>2860.1489999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37">
+        <v>100401</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>427</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37" t="s">
+        <v>430</v>
+      </c>
+      <c r="I37" s="1">
+        <v>6.556</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38">
+        <v>100401</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>428</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38" t="s">
+        <v>430</v>
+      </c>
+      <c r="I38" s="1">
+        <v>1156.45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39">
+        <v>100401</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>428</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39" t="s">
+        <v>430</v>
+      </c>
+      <c r="I39" s="1">
+        <v>957.02800000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40">
+        <v>100401</v>
+      </c>
+      <c r="D40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>428</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="H40" t="s">
+        <v>430</v>
+      </c>
+      <c r="I40" s="1">
+        <v>434.392</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41">
+        <v>100401</v>
+      </c>
+      <c r="D41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41" t="s">
+        <v>428</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41" t="s">
+        <v>430</v>
+      </c>
+      <c r="I41" s="1">
+        <v>179.12299999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B42" t="s">
+        <v>257</v>
+      </c>
+      <c r="C42">
+        <v>100401</v>
+      </c>
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42" t="s">
+        <v>428</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+      <c r="H42" t="s">
+        <v>430</v>
+      </c>
+      <c r="I42" s="1">
+        <v>152.40600000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43">
+        <v>100401</v>
+      </c>
+      <c r="D43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43" t="s">
+        <v>428</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43" t="s">
+        <v>430</v>
+      </c>
+      <c r="I43" s="1">
+        <v>8.0220000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44">
+        <v>100401</v>
+      </c>
+      <c r="D44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44" t="s">
+        <v>428</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+      <c r="H44" t="s">
+        <v>430</v>
+      </c>
+      <c r="I44" s="1">
+        <v>1.694</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45">
+        <v>100401</v>
+      </c>
+      <c r="D45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45" t="s">
+        <v>429</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45" t="s">
+        <v>430</v>
+      </c>
+      <c r="I45" s="1">
+        <v>742.53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B46" t="s">
+        <v>127</v>
+      </c>
+      <c r="C46">
+        <v>100401</v>
+      </c>
+      <c r="D46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46" t="s">
+        <v>429</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="H46" t="s">
+        <v>430</v>
+      </c>
+      <c r="I46" s="1">
+        <v>700.30799999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47">
+        <v>100401</v>
+      </c>
+      <c r="D47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47" t="s">
+        <v>429</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+      <c r="H47" t="s">
+        <v>430</v>
+      </c>
+      <c r="I47" s="1">
+        <v>458.01400000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B48" t="s">
+        <v>333</v>
+      </c>
+      <c r="C48">
+        <v>100401</v>
+      </c>
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48" t="s">
+        <v>429</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="H48" t="s">
+        <v>430</v>
+      </c>
+      <c r="I48" s="1">
+        <v>103.241</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49">
+        <v>100401</v>
+      </c>
+      <c r="D49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49" t="s">
+        <v>429</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+      <c r="H49" t="s">
+        <v>430</v>
+      </c>
+      <c r="I49" s="1">
+        <v>73.361000000000004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A36:A49" calculatedColumn="1"/>
+  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/Ganadería/17.25.xlsx
+++ b/Ganadería/17.25.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Ganadería\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rojas.DESKTOP-91OCPB2\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Ganadería\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A42FA3F-D81A-4D70-B78D-26E5375A4417}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF5640C-CC46-4B92-A89E-BC2471D1559B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C3FE0F7F-E924-4772-AF9D-39E50E23893D}"/>
+    <workbookView xWindow="-23148" yWindow="-2160" windowWidth="23256" windowHeight="12576" xr2:uid="{C3FE0F7F-E924-4772-AF9D-39E50E23893D}"/>
   </bookViews>
   <sheets>
     <sheet name="producto y destino exportac.usd" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1731,7 +1722,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C05BC6-1B92-465A-B7C0-96B5F7899E76}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39:E44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1786,6 +1779,9 @@
       <c r="D2" t="s">
         <v>11</v>
       </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
@@ -1813,6 +1809,9 @@
       <c r="D3" t="s">
         <v>11</v>
       </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
       <c r="F3" t="s">
         <v>12</v>
       </c>
@@ -1840,6 +1839,9 @@
       <c r="D4" t="s">
         <v>11</v>
       </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
       <c r="F4" t="s">
         <v>12</v>
       </c>
@@ -1867,6 +1869,9 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
       <c r="F5" t="s">
         <v>12</v>
       </c>
@@ -1894,6 +1899,9 @@
       <c r="D6" t="s">
         <v>11</v>
       </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
       <c r="F6" t="s">
         <v>12</v>
       </c>
@@ -1921,6 +1929,9 @@
       <c r="D7" t="s">
         <v>11</v>
       </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
       <c r="F7" t="s">
         <v>21</v>
       </c>
@@ -1948,6 +1959,9 @@
       <c r="D8" t="s">
         <v>11</v>
       </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
       <c r="F8" t="s">
         <v>21</v>
       </c>
@@ -1975,6 +1989,9 @@
       <c r="D9" t="s">
         <v>11</v>
       </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
       <c r="F9" t="s">
         <v>21</v>
       </c>
@@ -2002,6 +2019,9 @@
       <c r="D10" t="s">
         <v>11</v>
       </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
       <c r="F10" t="s">
         <v>21</v>
       </c>
@@ -2029,6 +2049,9 @@
       <c r="D11" t="s">
         <v>11</v>
       </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
       <c r="F11" t="s">
         <v>21</v>
       </c>
@@ -2056,6 +2079,9 @@
       <c r="D12" t="s">
         <v>11</v>
       </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
       <c r="F12" t="s">
         <v>21</v>
       </c>
@@ -2083,6 +2109,9 @@
       <c r="D13" t="s">
         <v>11</v>
       </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
       <c r="F13" t="s">
         <v>21</v>
       </c>
@@ -2110,6 +2139,9 @@
       <c r="D14" t="s">
         <v>11</v>
       </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
       <c r="F14" t="s">
         <v>21</v>
       </c>
@@ -2137,6 +2169,9 @@
       <c r="D15" t="s">
         <v>11</v>
       </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
       <c r="F15" t="s">
         <v>21</v>
       </c>
@@ -2164,6 +2199,9 @@
       <c r="D16" t="s">
         <v>11</v>
       </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
       <c r="F16" t="s">
         <v>21</v>
       </c>
@@ -2191,6 +2229,9 @@
       <c r="D17" t="s">
         <v>11</v>
       </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
       <c r="F17" t="s">
         <v>21</v>
       </c>
@@ -2218,6 +2259,9 @@
       <c r="D18" t="s">
         <v>11</v>
       </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
       <c r="F18" t="s">
         <v>21</v>
       </c>
@@ -2245,6 +2289,9 @@
       <c r="D19" t="s">
         <v>11</v>
       </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
       <c r="F19" t="s">
         <v>25</v>
       </c>
@@ -2272,6 +2319,9 @@
       <c r="D20" t="s">
         <v>11</v>
       </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
       <c r="F20" t="s">
         <v>25</v>
       </c>
@@ -2299,6 +2349,9 @@
       <c r="D21" t="s">
         <v>11</v>
       </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
       <c r="F21" t="s">
         <v>25</v>
       </c>
@@ -2326,6 +2379,9 @@
       <c r="D22" t="s">
         <v>11</v>
       </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
       <c r="F22" t="s">
         <v>25</v>
       </c>
@@ -2353,6 +2409,9 @@
       <c r="D23" t="s">
         <v>11</v>
       </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
       <c r="F23" t="s">
         <v>25</v>
       </c>
@@ -2380,6 +2439,9 @@
       <c r="D24" t="s">
         <v>11</v>
       </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
       <c r="F24" t="s">
         <v>25</v>
       </c>
@@ -2407,6 +2469,9 @@
       <c r="D25" t="s">
         <v>11</v>
       </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
       <c r="F25" t="s">
         <v>28</v>
       </c>
@@ -2434,6 +2499,9 @@
       <c r="D26" t="s">
         <v>11</v>
       </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
       <c r="F26" t="s">
         <v>28</v>
       </c>
@@ -2461,6 +2529,9 @@
       <c r="D27" t="s">
         <v>11</v>
       </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
       <c r="F27" t="s">
         <v>28</v>
       </c>
@@ -2488,6 +2559,9 @@
       <c r="D28" t="s">
         <v>11</v>
       </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
       <c r="F28" t="s">
         <v>28</v>
       </c>
@@ -2515,6 +2589,9 @@
       <c r="D29" t="s">
         <v>11</v>
       </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
       <c r="F29" t="s">
         <v>28</v>
       </c>
@@ -2542,6 +2619,9 @@
       <c r="D30" t="s">
         <v>11</v>
       </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
       <c r="F30" t="s">
         <v>28</v>
       </c>
@@ -2569,6 +2649,9 @@
       <c r="D31" t="s">
         <v>11</v>
       </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
       <c r="F31" t="s">
         <v>28</v>
       </c>
@@ -2596,6 +2679,9 @@
       <c r="D32" t="s">
         <v>11</v>
       </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
       <c r="F32" t="s">
         <v>28</v>
       </c>
@@ -2623,6 +2709,9 @@
       <c r="D33" t="s">
         <v>11</v>
       </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
       <c r="F33" t="s">
         <v>28</v>
       </c>
@@ -2650,6 +2739,9 @@
       <c r="D34" t="s">
         <v>11</v>
       </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
       <c r="F34" t="s">
         <v>28</v>
       </c>
@@ -2677,6 +2769,9 @@
       <c r="D35" t="s">
         <v>11</v>
       </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
       <c r="F35" t="s">
         <v>28</v>
       </c>
@@ -2704,7 +2799,7 @@
         <v>11</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F36" t="s">
         <v>427</v>
@@ -2733,7 +2828,7 @@
         <v>11</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F37" t="s">
         <v>427</v>
@@ -2762,7 +2857,7 @@
         <v>11</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F38" t="s">
         <v>428</v>
@@ -2791,7 +2886,7 @@
         <v>11</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F39" t="s">
         <v>428</v>
@@ -2820,7 +2915,7 @@
         <v>11</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F40" t="s">
         <v>428</v>
@@ -2849,7 +2944,7 @@
         <v>11</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F41" t="s">
         <v>428</v>
@@ -2878,7 +2973,7 @@
         <v>11</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F42" t="s">
         <v>428</v>
@@ -2907,7 +3002,7 @@
         <v>11</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F43" t="s">
         <v>428</v>
@@ -2936,7 +3031,7 @@
         <v>11</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F44" t="s">
         <v>428</v>
@@ -2965,7 +3060,7 @@
         <v>11</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F45" t="s">
         <v>429</v>
@@ -2994,7 +3089,7 @@
         <v>11</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F46" t="s">
         <v>429</v>
@@ -3023,7 +3118,7 @@
         <v>11</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F47" t="s">
         <v>429</v>
@@ -3052,7 +3147,7 @@
         <v>11</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F48" t="s">
         <v>429</v>
@@ -3081,7 +3176,7 @@
         <v>11</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F49" t="s">
         <v>429</v>
